--- a/ImOnAVote포트폴리오/03. 설계/03_03. 메뉴 및 기능 정의서.xlsx
+++ b/ImOnAVote포트폴리오/03. 설계/03_03. 메뉴 및 기능 정의서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\포트폴리오 관련\03. 설계\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F293CA83-D938-44A9-93F9-30BE8B7CF008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772F19AC-D13B-439C-8A96-F0D53B0946E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>메뉴 &amp; 기능 정의서</t>
   </si>
@@ -294,52 +294,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관리</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="굴림"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="휴먼명조"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>.1.2</t>
-    </r>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>포인트관리</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -369,6 +323,10 @@
   </si>
   <si>
     <t>유료회원인지 아닌지 조회함</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>설문관리</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -376,7 +334,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +403,17 @@
       <color rgb="FF000000"/>
       <name val="굴림"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="휴먼명조"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="휴먼명조"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -636,7 +605,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -646,57 +615,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -712,11 +633,56 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -936,7 +902,7 @@
   <dimension ref="B1:I999"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18:B19"/>
+      <selection activeCell="B6" sqref="B6:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -955,28 +921,28 @@
   <sheetData>
     <row r="1" spans="2:9" ht="16.5" customHeight="1"/>
     <row r="2" spans="2:9" ht="41.25" customHeight="1">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="18"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="29.25" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="18"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="3"/>
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
@@ -988,13 +954,13 @@
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="18"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1003,60 +969,60 @@
       </c>
     </row>
     <row r="5" spans="2:9" ht="25.5" customHeight="1">
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="24" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="24" t="s">
+      <c r="E5" s="3"/>
+      <c r="F5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="3"/>
+      <c r="H5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="18"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B6" s="15">
+      <c r="B6" s="9">
         <v>1</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="18"/>
+      <c r="I6" s="12"/>
     </row>
     <row r="7" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B7" s="25"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="3" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="5" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="15" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1065,222 +1031,222 @@
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="18"/>
+      <c r="I8" s="12"/>
     </row>
     <row r="9" spans="2:9" ht="16.5" customHeight="1">
       <c r="B9" s="16"/>
       <c r="C9" s="16"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="18"/>
+      <c r="I9" s="12"/>
     </row>
     <row r="10" spans="2:9" ht="16.5" customHeight="1">
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="3" t="s">
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="18"/>
+      <c r="I10" s="12"/>
     </row>
     <row r="11" spans="2:9" ht="16.5" customHeight="1">
       <c r="B11" s="16"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="15">
+      <c r="D11" s="9">
         <v>1.2</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="I11" s="18"/>
+      <c r="I11" s="12"/>
     </row>
     <row r="12" spans="2:9" ht="16.5" customHeight="1">
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H12" s="17" t="s">
+      <c r="H12" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="12"/>
     </row>
     <row r="13" spans="2:9" ht="16.5" customHeight="1">
       <c r="B13" s="16"/>
       <c r="C13" s="16"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H13" s="17" t="s">
+      <c r="H13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="I13" s="18"/>
+      <c r="I13" s="12"/>
     </row>
     <row r="14" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="3" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="18"/>
+      <c r="I14" s="12"/>
     </row>
     <row r="15" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B15" s="15">
+      <c r="B15" s="9">
         <v>2</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="10">
         <v>2.1</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="17" t="s">
+      <c r="H15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="18"/>
+      <c r="I15" s="12"/>
     </row>
     <row r="16" spans="2:9" ht="16.5" customHeight="1">
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
-      <c r="D16" s="3">
+      <c r="D16" s="10">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="3" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="17" t="s">
+      <c r="H16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="18"/>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="2:9" ht="16.5" customHeight="1">
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="3">
+      <c r="D17" s="10">
         <v>2.1</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="F17" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H17" s="17" t="s">
+      <c r="H17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="18"/>
+      <c r="I17" s="12"/>
     </row>
     <row r="18" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B18" s="11">
+      <c r="B18" s="19">
         <v>3</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="20">
         <v>3.1</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="G18" s="8" t="s">
+      <c r="H18" s="21"/>
+      <c r="I18" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="10" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="16.5" customHeight="1">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="6">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="20">
         <v>3.2</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I19" s="14"/>
+      <c r="I19" s="25"/>
     </row>
     <row r="20" spans="2:9" ht="16.5" customHeight="1"/>
     <row r="21" spans="2:9" ht="16.5" customHeight="1"/>
@@ -2264,6 +2230,22 @@
     <row r="999" ht="16.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H10:I10"/>
@@ -2278,22 +2260,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
